--- a/TestEnvironment/test_SmokeTestSuite/Manager/PDFFileNameData/FileName.xlsx
+++ b/TestEnvironment/test_SmokeTestSuite/Manager/PDFFileNameData/FileName.xlsx
@@ -413,7 +413,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>test_Smoke_Home_Manager_28_March_2023_03_13PM.pdf</t>
+          <t>test_Smoke_Home_Manager_28_March_2023_06_22PM.pdf</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -428,7 +428,7 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">

--- a/TestEnvironment/test_SmokeTestSuite/Manager/PDFFileNameData/FileName.xlsx
+++ b/TestEnvironment/test_SmokeTestSuite/Manager/PDFFileNameData/FileName.xlsx
@@ -413,7 +413,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>test_Smoke_Home_Manager_28_March_2023_06_22PM.pdf</t>
+          <t>test_Smoke_Home_Manager_29_March_2023_06_16PM.pdf</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -438,6 +438,31 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>test_Smoke_Plans_Manager</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>test_Smoke_Plans_Manager_29_March_2023_06_37PM.pdf</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>test_SmokeTestSuite</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>This test scenario is to perform a smoke test on all elements on Plans modules for Manager user</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>Send Only when Fail=No</t>

--- a/TestEnvironment/test_SmokeTestSuite/Manager/PDFFileNameData/FileName.xlsx
+++ b/TestEnvironment/test_SmokeTestSuite/Manager/PDFFileNameData/FileName.xlsx
@@ -413,7 +413,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>test_Smoke_Home_Manager_29_March_2023_06_16PM.pdf</t>
+          <t>test_Smoke_Home_Manager_31_March_2023_05_15PM.pdf</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -445,7 +445,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>test_Smoke_Plans_Manager_29_March_2023_06_37PM.pdf</t>
+          <t>test_Smoke_Plans_Manager_31_March_2023_05_16PM.pdf</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -470,6 +470,31 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>test_Smoke_Admin_Manager</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>test_Smoke_Admin_Manager_31_March_2023_05_15PM.pdf</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>test_SmokeTestSuite</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>This test scenario is to perform a smoke test on all elements on Admin modules for Manager user</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>Send Only when Fail=No</t>
@@ -477,6 +502,31 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>test_Smoke_Approvals_Manager</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>test_Smoke_Approvals_Manager_31_March_2023_05_15PM.pdf</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>test_SmokeTestSuite</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>This test scenario is to perform a smoke test on all elements on Approvals modules for Manager user</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>Send Only when Fail=No</t>
